--- a/knowledge/tools/ExcelTools.xlsx
+++ b/knowledge/tools/ExcelTools.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="List Comparator" sheetId="1" r:id="rId1"/>
     <sheet name="Task list model" sheetId="2" r:id="rId2"/>
+    <sheet name="Double" sheetId="3" r:id="rId3"/>
+    <sheet name="Automatic border" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
   <si>
     <t>Liste 1</t>
   </si>
@@ -363,6 +365,81 @@
   </si>
   <si>
     <t>description 4</t>
+  </si>
+  <si>
+    <t>item 1</t>
+  </si>
+  <si>
+    <t>item 2</t>
+  </si>
+  <si>
+    <t>item 3</t>
+  </si>
+  <si>
+    <t>item 4</t>
+  </si>
+  <si>
+    <t>item 5</t>
+  </si>
+  <si>
+    <t>item 6</t>
+  </si>
+  <si>
+    <t>item 7</t>
+  </si>
+  <si>
+    <t>item 8</t>
+  </si>
+  <si>
+    <t>item 9</t>
+  </si>
+  <si>
+    <t>item 10</t>
+  </si>
+  <si>
+    <t>item 12</t>
+  </si>
+  <si>
+    <t>item 13</t>
+  </si>
+  <si>
+    <t>item 14</t>
+  </si>
+  <si>
+    <t>item 15</t>
+  </si>
+  <si>
+    <t>item 16</t>
+  </si>
+  <si>
+    <t>item 18</t>
+  </si>
+  <si>
+    <t>item 19</t>
+  </si>
+  <si>
+    <t>item 20</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -464,7 +541,128 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -574,20 +772,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCCDDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,7 +1074,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -1626,13 +1813,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>AND(NOT(ISBLANK(A1)), COUNTIF($B$2:$B$10001, A1)=0)</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(NOT(ISBLANK(A1)), COUNTIF($B$2:$B$1048576, A1)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>AND(NOT(ISBLANK(B1)), COUNTIF($A$2:$A$10001, B1)=0)</formula>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(NOT(ISBLANK(B1)), COUNTIF($A$2:$A$1048576, B1)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,30 +1906,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(MOD(ROW(),2)=1, NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E1048576 A2:B1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(MOD(ROW(),2)=0,NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E1048576 B2:B1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(MOD(ROW(),2)=1, NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Status 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Status 3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Status 1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1753,4 +1940,174 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="J10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>NOT(ISBLANK(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>